--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R1ef21388a8704bd6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rc8e1675fc07d4a89"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rc8e1675fc07d4a89"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rced816ebaa40474b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rced816ebaa40474b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8b31041298ff4118"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8b31041298ff4118"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R766f005d73a4413b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R766f005d73a4413b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R63fc13ab6bbe4684"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R63fc13ab6bbe4684"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rcbdd7c9e94ed4eee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rcbdd7c9e94ed4eee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R287e4090bf5f42b4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R287e4090bf5f42b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rf119e885cc2d446d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rf119e885cc2d446d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R685734c4c3c24172"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R685734c4c3c24172"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2c55180290dc48f7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2c55180290dc48f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rc14262beb501420b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,12 +29,12 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rc14262beb501420b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R230a8c93e0084ab5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,12 +29,12 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/054_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R230a8c93e0084ab5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rf5cdfb60bc2447fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
